--- a/public/unupload_report/distributor_unuploaded_data_report.xlsx
+++ b/public/unupload_report/distributor_unuploaded_data_report.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
   <si>
     <t>Sr.</t>
   </si>
@@ -88,6 +88,57 @@
     <t>Region_of_Operation</t>
   </si>
   <si>
+    <t>Brac</t>
+  </si>
+  <si>
+    <t>dh0021111</t>
+  </si>
+  <si>
+    <t>455679</t>
+  </si>
+  <si>
+    <t>abc@agroni.com</t>
+  </si>
+  <si>
+    <t>01675878895</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>1245676</t>
+  </si>
+  <si>
+    <t>454545454</t>
+  </si>
+  <si>
+    <t>Dhaka</t>
+  </si>
+  <si>
+    <t>Banani</t>
+  </si>
+  <si>
+    <t>Dhaks</t>
+  </si>
+  <si>
+    <t>ABC</t>
+  </si>
+  <si>
+    <t>ABC XYZ</t>
+  </si>
+  <si>
+    <t>Sales Manager</t>
+  </si>
+  <si>
+    <t>1478789877</t>
+  </si>
+  <si>
+    <t>abcxyz@agroni.com</t>
+  </si>
+  <si>
+    <t>unknown</t>
+  </si>
+  <si>
     <t>Agroni</t>
   </si>
   <si>
@@ -97,66 +148,21 @@
     <t>12345678</t>
   </si>
   <si>
-    <t>abc@agroni.com</t>
-  </si>
-  <si>
     <t>1675878899</t>
   </si>
   <si>
-    <t>no</t>
-  </si>
-  <si>
     <t>1245674</t>
   </si>
   <si>
-    <t>454545454</t>
-  </si>
-  <si>
-    <t>Dhaka</t>
-  </si>
-  <si>
-    <t>Banani</t>
-  </si>
-  <si>
-    <t>Dhaks</t>
-  </si>
-  <si>
-    <t>ABC</t>
-  </si>
-  <si>
-    <t>ABC XYZ</t>
-  </si>
-  <si>
-    <t>Sales Manager</t>
-  </si>
-  <si>
-    <t>1478789877</t>
-  </si>
-  <si>
-    <t>abcxyz@agroni.com</t>
-  </si>
-  <si>
-    <t>unknown</t>
-  </si>
-  <si>
     <t>Janata</t>
   </si>
   <si>
-    <t>dh0021111</t>
-  </si>
-  <si>
     <t>12345679</t>
   </si>
   <si>
     <t>1245675</t>
   </si>
   <si>
-    <t>Brac</t>
-  </si>
-  <si>
-    <t>1245676</t>
-  </si>
-  <si>
     <t>1245677</t>
   </si>
   <si>
@@ -173,9 +179,6 @@
   </si>
   <si>
     <t>123455679</t>
-  </si>
-  <si>
-    <t>01675878895</t>
   </si>
   <si>
     <t>123485679</t>
@@ -258,7 +261,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y45"/>
+  <dimension ref="A1:Y47"/>
   <sheetViews>
     <sheetView showGridLines="1" workbookViewId="0" rightToLeft="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100"/>
   </sheetViews>
@@ -403,7 +406,7 @@
         <v>37</v>
       </c>
       <c r="U2" s="0" t="n">
-        <v>780022878</v>
+        <v>7800312878</v>
       </c>
       <c r="V2" s="0" t="s">
         <v>38</v>
@@ -426,13 +429,13 @@
         <v>10084</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="F3" s="0" t="s">
         <v>28</v>
@@ -444,7 +447,7 @@
         <v>30</v>
       </c>
       <c r="I3" s="0" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="J3" s="0" t="s">
         <v>32</v>
@@ -480,7 +483,7 @@
         <v>37</v>
       </c>
       <c r="U3" s="0" t="n">
-        <v>780022878</v>
+        <v>7800312878</v>
       </c>
       <c r="V3" s="0" t="s">
         <v>38</v>
@@ -503,7 +506,7 @@
         <v>10084</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D4" s="0" t="s">
         <v>43</v>
@@ -515,13 +518,13 @@
         <v>28</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="H4" s="0" t="s">
         <v>30</v>
       </c>
       <c r="I4" s="0" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J4" s="0" t="s">
         <v>32</v>
@@ -577,28 +580,28 @@
         <v>4</v>
       </c>
       <c r="B5" s="0" t="n">
-        <v>10087</v>
+        <v>10084</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="F5" s="0" t="s">
         <v>28</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="H5" s="0" t="s">
         <v>30</v>
       </c>
       <c r="I5" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J5" s="0" t="s">
         <v>32</v>
@@ -654,28 +657,28 @@
         <v>5</v>
       </c>
       <c r="B6" s="0" t="n">
-        <v>10087</v>
+        <v>10084</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="F6" s="0" t="s">
         <v>28</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="H6" s="0" t="s">
         <v>30</v>
       </c>
       <c r="I6" s="0" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="J6" s="0" t="s">
         <v>32</v>
@@ -731,28 +734,28 @@
         <v>6</v>
       </c>
       <c r="B7" s="0" t="n">
-        <v>10084</v>
+        <v>10087</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="F7" s="0" t="s">
         <v>28</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="H7" s="0" t="s">
         <v>30</v>
       </c>
       <c r="I7" s="0" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="J7" s="0" t="s">
         <v>32</v>
@@ -788,7 +791,7 @@
         <v>37</v>
       </c>
       <c r="U7" s="0" t="n">
-        <v>7802222878</v>
+        <v>780022878</v>
       </c>
       <c r="V7" s="0" t="s">
         <v>38</v>
@@ -808,28 +811,28 @@
         <v>7</v>
       </c>
       <c r="B8" s="0" t="n">
-        <v>10084</v>
+        <v>10087</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="F8" s="0" t="s">
         <v>28</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="H8" s="0" t="s">
         <v>30</v>
       </c>
       <c r="I8" s="0" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="J8" s="0" t="s">
         <v>32</v>
@@ -865,7 +868,7 @@
         <v>37</v>
       </c>
       <c r="U8" s="0" t="n">
-        <v>7800312878</v>
+        <v>780022878</v>
       </c>
       <c r="V8" s="0" t="s">
         <v>38</v>
@@ -885,28 +888,28 @@
         <v>8</v>
       </c>
       <c r="B9" s="0" t="n">
-        <v>10087</v>
+        <v>10084</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F9" s="0" t="s">
         <v>28</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="H9" s="0" t="s">
         <v>30</v>
       </c>
       <c r="I9" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J9" s="0" t="s">
         <v>32</v>
@@ -942,7 +945,7 @@
         <v>37</v>
       </c>
       <c r="U9" s="0" t="n">
-        <v>7800322878</v>
+        <v>7802222878</v>
       </c>
       <c r="V9" s="0" t="s">
         <v>38</v>
@@ -962,28 +965,28 @@
         <v>9</v>
       </c>
       <c r="B10" s="0" t="n">
-        <v>10087</v>
+        <v>10084</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F10" s="0" t="s">
         <v>28</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>58</v>
+        <v>29</v>
       </c>
       <c r="H10" s="0" t="s">
         <v>30</v>
       </c>
       <c r="I10" s="0" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="J10" s="0" t="s">
         <v>32</v>
@@ -1019,7 +1022,7 @@
         <v>37</v>
       </c>
       <c r="U10" s="0" t="n">
-        <v>7800222878</v>
+        <v>7800312878</v>
       </c>
       <c r="V10" s="0" t="s">
         <v>38</v>
@@ -1039,28 +1042,28 @@
         <v>10</v>
       </c>
       <c r="B11" s="0" t="n">
-        <v>10084</v>
+        <v>10087</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="F11" s="0" t="s">
         <v>28</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>29</v>
+        <v>57</v>
       </c>
       <c r="H11" s="0" t="s">
         <v>30</v>
       </c>
       <c r="I11" s="0" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="J11" s="0" t="s">
         <v>32</v>
@@ -1096,7 +1099,7 @@
         <v>37</v>
       </c>
       <c r="U11" s="0" t="n">
-        <v>780022878</v>
+        <v>7800322878</v>
       </c>
       <c r="V11" s="0" t="s">
         <v>38</v>
@@ -1116,28 +1119,28 @@
         <v>11</v>
       </c>
       <c r="B12" s="0" t="n">
-        <v>10084</v>
+        <v>10087</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="F12" s="0" t="s">
         <v>28</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>29</v>
+        <v>59</v>
       </c>
       <c r="H12" s="0" t="s">
         <v>30</v>
       </c>
       <c r="I12" s="0" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="J12" s="0" t="s">
         <v>32</v>
@@ -1173,7 +1176,7 @@
         <v>37</v>
       </c>
       <c r="U12" s="0" t="n">
-        <v>780022878</v>
+        <v>7800222878</v>
       </c>
       <c r="V12" s="0" t="s">
         <v>38</v>
@@ -1193,28 +1196,28 @@
         <v>12</v>
       </c>
       <c r="B13" s="0" t="n">
-        <v>10087</v>
+        <v>10084</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="F13" s="0" t="s">
         <v>28</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="H13" s="0" t="s">
         <v>30</v>
       </c>
       <c r="I13" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J13" s="0" t="s">
         <v>32</v>
@@ -1270,28 +1273,28 @@
         <v>13</v>
       </c>
       <c r="B14" s="0" t="n">
-        <v>10087</v>
+        <v>10084</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="F14" s="0" t="s">
         <v>28</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="H14" s="0" t="s">
         <v>30</v>
       </c>
       <c r="I14" s="0" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="J14" s="0" t="s">
         <v>32</v>
@@ -1347,7 +1350,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="0" t="n">
-        <v>10084</v>
+        <v>10087</v>
       </c>
       <c r="C15" s="0" t="s">
         <v>25</v>
@@ -1356,19 +1359,19 @@
         <v>26</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="F15" s="0" t="s">
         <v>28</v>
       </c>
       <c r="G15" s="0" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="H15" s="0" t="s">
         <v>30</v>
       </c>
       <c r="I15" s="0" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="J15" s="0" t="s">
         <v>32</v>
@@ -1424,28 +1427,28 @@
         <v>15</v>
       </c>
       <c r="B16" s="0" t="n">
-        <v>10084</v>
+        <v>10087</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="F16" s="0" t="s">
         <v>28</v>
       </c>
       <c r="G16" s="0" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="H16" s="0" t="s">
         <v>30</v>
       </c>
       <c r="I16" s="0" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="J16" s="0" t="s">
         <v>32</v>
@@ -1504,7 +1507,7 @@
         <v>10084</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D17" s="0" t="s">
         <v>43</v>
@@ -1516,13 +1519,13 @@
         <v>28</v>
       </c>
       <c r="G17" s="0" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="H17" s="0" t="s">
         <v>30</v>
       </c>
       <c r="I17" s="0" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J17" s="0" t="s">
         <v>32</v>
@@ -1578,28 +1581,28 @@
         <v>17</v>
       </c>
       <c r="B18" s="0" t="n">
-        <v>10087</v>
+        <v>10084</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="F18" s="0" t="s">
         <v>28</v>
       </c>
       <c r="G18" s="0" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="H18" s="0" t="s">
         <v>30</v>
       </c>
       <c r="I18" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J18" s="0" t="s">
         <v>32</v>
@@ -1655,28 +1658,28 @@
         <v>18</v>
       </c>
       <c r="B19" s="0" t="n">
-        <v>10087</v>
+        <v>10084</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="F19" s="0" t="s">
         <v>28</v>
       </c>
       <c r="G19" s="0" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="H19" s="0" t="s">
         <v>30</v>
       </c>
       <c r="I19" s="0" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="J19" s="0" t="s">
         <v>32</v>
@@ -1732,28 +1735,28 @@
         <v>19</v>
       </c>
       <c r="B20" s="0" t="n">
-        <v>10084</v>
+        <v>10087</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="F20" s="0" t="s">
         <v>28</v>
       </c>
       <c r="G20" s="0" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="H20" s="0" t="s">
         <v>30</v>
       </c>
       <c r="I20" s="0" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="J20" s="0" t="s">
         <v>32</v>
@@ -1789,7 +1792,7 @@
         <v>37</v>
       </c>
       <c r="U20" s="0" t="n">
-        <v>7802222878</v>
+        <v>780022878</v>
       </c>
       <c r="V20" s="0" t="s">
         <v>38</v>
@@ -1809,28 +1812,28 @@
         <v>20</v>
       </c>
       <c r="B21" s="0" t="n">
-        <v>10084</v>
+        <v>10087</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="F21" s="0" t="s">
         <v>28</v>
       </c>
       <c r="G21" s="0" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="H21" s="0" t="s">
         <v>30</v>
       </c>
       <c r="I21" s="0" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="J21" s="0" t="s">
         <v>32</v>
@@ -1866,7 +1869,7 @@
         <v>37</v>
       </c>
       <c r="U21" s="0" t="n">
-        <v>7800312878</v>
+        <v>780022878</v>
       </c>
       <c r="V21" s="0" t="s">
         <v>38</v>
@@ -1886,28 +1889,28 @@
         <v>21</v>
       </c>
       <c r="B22" s="0" t="n">
-        <v>10087</v>
+        <v>10084</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F22" s="0" t="s">
         <v>28</v>
       </c>
       <c r="G22" s="0" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="H22" s="0" t="s">
         <v>30</v>
       </c>
       <c r="I22" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J22" s="0" t="s">
         <v>32</v>
@@ -1943,7 +1946,7 @@
         <v>37</v>
       </c>
       <c r="U22" s="0" t="n">
-        <v>7800322878</v>
+        <v>7802222878</v>
       </c>
       <c r="V22" s="0" t="s">
         <v>38</v>
@@ -1963,28 +1966,28 @@
         <v>22</v>
       </c>
       <c r="B23" s="0" t="n">
-        <v>10087</v>
+        <v>10084</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F23" s="0" t="s">
         <v>28</v>
       </c>
       <c r="G23" s="0" t="s">
-        <v>58</v>
+        <v>29</v>
       </c>
       <c r="H23" s="0" t="s">
         <v>30</v>
       </c>
       <c r="I23" s="0" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="J23" s="0" t="s">
         <v>32</v>
@@ -2020,7 +2023,7 @@
         <v>37</v>
       </c>
       <c r="U23" s="0" t="n">
-        <v>7800222878</v>
+        <v>7800312878</v>
       </c>
       <c r="V23" s="0" t="s">
         <v>38</v>
@@ -2040,28 +2043,28 @@
         <v>23</v>
       </c>
       <c r="B24" s="0" t="n">
-        <v>10084</v>
+        <v>10087</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="F24" s="0" t="s">
-        <v>59</v>
+        <v>28</v>
       </c>
       <c r="G24" s="0" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="H24" s="0" t="s">
         <v>30</v>
       </c>
       <c r="I24" s="0" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="J24" s="0" t="s">
         <v>32</v>
@@ -2097,7 +2100,7 @@
         <v>37</v>
       </c>
       <c r="U24" s="0" t="n">
-        <v>7802222878</v>
+        <v>7800322878</v>
       </c>
       <c r="V24" s="0" t="s">
         <v>38</v>
@@ -2117,28 +2120,28 @@
         <v>24</v>
       </c>
       <c r="B25" s="0" t="n">
-        <v>10084</v>
+        <v>10087</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="F25" s="0" t="s">
         <v>28</v>
       </c>
       <c r="G25" s="0" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="H25" s="0" t="s">
         <v>30</v>
       </c>
       <c r="I25" s="0" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="J25" s="0" t="s">
         <v>32</v>
@@ -2174,7 +2177,7 @@
         <v>37</v>
       </c>
       <c r="U25" s="0" t="n">
-        <v>7800312878</v>
+        <v>7800222878</v>
       </c>
       <c r="V25" s="0" t="s">
         <v>38</v>
@@ -2197,25 +2200,25 @@
         <v>10084</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F26" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G26" s="0" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="H26" s="0" t="s">
         <v>30</v>
       </c>
       <c r="I26" s="0" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="J26" s="0" t="s">
         <v>32</v>
@@ -2274,25 +2277,25 @@
         <v>10084</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="E27" s="0" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F27" s="0" t="s">
         <v>28</v>
       </c>
       <c r="G27" s="0" t="s">
-        <v>54</v>
+        <v>29</v>
       </c>
       <c r="H27" s="0" t="s">
         <v>30</v>
       </c>
       <c r="I27" s="0" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="J27" s="0" t="s">
         <v>32</v>
@@ -2351,16 +2354,16 @@
         <v>10084</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D28" s="0" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="E28" s="0" t="s">
         <v>53</v>
       </c>
       <c r="F28" s="0" t="s">
-        <v>28</v>
+        <v>60</v>
       </c>
       <c r="G28" s="0" t="s">
         <v>54</v>
@@ -2369,7 +2372,7 @@
         <v>30</v>
       </c>
       <c r="I28" s="0" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="J28" s="0" t="s">
         <v>32</v>
@@ -2405,7 +2408,7 @@
         <v>37</v>
       </c>
       <c r="U28" s="0" t="n">
-        <v>7800312878</v>
+        <v>7802222878</v>
       </c>
       <c r="V28" s="0" t="s">
         <v>38</v>
@@ -2431,10 +2434,10 @@
         <v>25</v>
       </c>
       <c r="D29" s="0" t="s">
-        <v>60</v>
+        <v>26</v>
       </c>
       <c r="E29" s="0" t="s">
-        <v>27</v>
+        <v>55</v>
       </c>
       <c r="F29" s="0" t="s">
         <v>28</v>
@@ -2482,7 +2485,7 @@
         <v>37</v>
       </c>
       <c r="U29" s="0" t="n">
-        <v>780022878</v>
+        <v>7800312878</v>
       </c>
       <c r="V29" s="0" t="s">
         <v>38</v>
@@ -2505,13 +2508,13 @@
         <v>10084</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="D30" s="0" t="s">
-        <v>61</v>
+        <v>26</v>
       </c>
       <c r="E30" s="0" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="F30" s="0" t="s">
         <v>28</v>
@@ -2523,7 +2526,7 @@
         <v>30</v>
       </c>
       <c r="I30" s="0" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="J30" s="0" t="s">
         <v>32</v>
@@ -2559,7 +2562,7 @@
         <v>37</v>
       </c>
       <c r="U30" s="0" t="n">
-        <v>780022878</v>
+        <v>7800312878</v>
       </c>
       <c r="V30" s="0" t="s">
         <v>38</v>
@@ -2582,7 +2585,7 @@
         <v>10084</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D31" s="0" t="s">
         <v>61</v>
@@ -2594,13 +2597,13 @@
         <v>28</v>
       </c>
       <c r="G31" s="0" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="H31" s="0" t="s">
         <v>30</v>
       </c>
       <c r="I31" s="0" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J31" s="0" t="s">
         <v>32</v>
@@ -2656,28 +2659,28 @@
         <v>31</v>
       </c>
       <c r="B32" s="0" t="n">
-        <v>10087</v>
+        <v>10084</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D32" s="0" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E32" s="0" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="F32" s="0" t="s">
         <v>28</v>
       </c>
       <c r="G32" s="0" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="H32" s="0" t="s">
         <v>30</v>
       </c>
       <c r="I32" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J32" s="0" t="s">
         <v>32</v>
@@ -2733,28 +2736,28 @@
         <v>32</v>
       </c>
       <c r="B33" s="0" t="n">
-        <v>10087</v>
+        <v>10084</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="D33" s="0" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E33" s="0" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="F33" s="0" t="s">
         <v>28</v>
       </c>
       <c r="G33" s="0" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="H33" s="0" t="s">
         <v>30</v>
       </c>
       <c r="I33" s="0" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="J33" s="0" t="s">
         <v>32</v>
@@ -2810,28 +2813,28 @@
         <v>33</v>
       </c>
       <c r="B34" s="0" t="n">
-        <v>10084</v>
+        <v>10087</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="D34" s="0" t="s">
-        <v>43</v>
+        <v>62</v>
       </c>
       <c r="E34" s="0" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="F34" s="0" t="s">
         <v>28</v>
       </c>
       <c r="G34" s="0" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="H34" s="0" t="s">
         <v>30</v>
       </c>
       <c r="I34" s="0" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="J34" s="0" t="s">
         <v>32</v>
@@ -2867,7 +2870,7 @@
         <v>37</v>
       </c>
       <c r="U34" s="0" t="n">
-        <v>7802222878</v>
+        <v>780022878</v>
       </c>
       <c r="V34" s="0" t="s">
         <v>38</v>
@@ -2887,28 +2890,28 @@
         <v>34</v>
       </c>
       <c r="B35" s="0" t="n">
-        <v>10084</v>
+        <v>10087</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="D35" s="0" t="s">
-        <v>43</v>
+        <v>62</v>
       </c>
       <c r="E35" s="0" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="F35" s="0" t="s">
         <v>28</v>
       </c>
       <c r="G35" s="0" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="H35" s="0" t="s">
         <v>30</v>
       </c>
       <c r="I35" s="0" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="J35" s="0" t="s">
         <v>32</v>
@@ -2944,7 +2947,7 @@
         <v>37</v>
       </c>
       <c r="U35" s="0" t="n">
-        <v>7800312878</v>
+        <v>780022878</v>
       </c>
       <c r="V35" s="0" t="s">
         <v>38</v>
@@ -2964,28 +2967,28 @@
         <v>35</v>
       </c>
       <c r="B36" s="0" t="n">
-        <v>10087</v>
+        <v>10084</v>
       </c>
       <c r="C36" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D36" s="0" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="E36" s="0" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F36" s="0" t="s">
         <v>28</v>
       </c>
       <c r="G36" s="0" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="H36" s="0" t="s">
         <v>30</v>
       </c>
       <c r="I36" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J36" s="0" t="s">
         <v>32</v>
@@ -3021,7 +3024,7 @@
         <v>37</v>
       </c>
       <c r="U36" s="0" t="n">
-        <v>7800322878</v>
+        <v>7802222878</v>
       </c>
       <c r="V36" s="0" t="s">
         <v>38</v>
@@ -3041,28 +3044,28 @@
         <v>36</v>
       </c>
       <c r="B37" s="0" t="n">
-        <v>10087</v>
+        <v>10084</v>
       </c>
       <c r="C37" s="0" t="s">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="D37" s="0" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="E37" s="0" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F37" s="0" t="s">
         <v>28</v>
       </c>
       <c r="G37" s="0" t="s">
-        <v>58</v>
+        <v>29</v>
       </c>
       <c r="H37" s="0" t="s">
         <v>30</v>
       </c>
       <c r="I37" s="0" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="J37" s="0" t="s">
         <v>32</v>
@@ -3098,7 +3101,7 @@
         <v>37</v>
       </c>
       <c r="U37" s="0" t="n">
-        <v>7800222878</v>
+        <v>7800312878</v>
       </c>
       <c r="V37" s="0" t="s">
         <v>38</v>
@@ -3118,28 +3121,28 @@
         <v>37</v>
       </c>
       <c r="B38" s="0" t="n">
-        <v>10084</v>
+        <v>10087</v>
       </c>
       <c r="C38" s="0" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="D38" s="0" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="E38" s="0" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="F38" s="0" t="s">
         <v>28</v>
       </c>
       <c r="G38" s="0" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="H38" s="0" t="s">
         <v>30</v>
       </c>
       <c r="I38" s="0" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="J38" s="0" t="s">
         <v>32</v>
@@ -3175,7 +3178,7 @@
         <v>37</v>
       </c>
       <c r="U38" s="0" t="n">
-        <v>7802222878</v>
+        <v>7800322878</v>
       </c>
       <c r="V38" s="0" t="s">
         <v>38</v>
@@ -3195,28 +3198,28 @@
         <v>38</v>
       </c>
       <c r="B39" s="0" t="n">
-        <v>10084</v>
+        <v>10087</v>
       </c>
       <c r="C39" s="0" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="D39" s="0" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="E39" s="0" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="F39" s="0" t="s">
         <v>28</v>
       </c>
       <c r="G39" s="0" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="H39" s="0" t="s">
         <v>30</v>
       </c>
       <c r="I39" s="0" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="J39" s="0" t="s">
         <v>32</v>
@@ -3252,7 +3255,7 @@
         <v>37</v>
       </c>
       <c r="U39" s="0" t="n">
-        <v>7800312878</v>
+        <v>7800222878</v>
       </c>
       <c r="V39" s="0" t="s">
         <v>38</v>
@@ -3272,28 +3275,28 @@
         <v>39</v>
       </c>
       <c r="B40" s="0" t="n">
-        <v>10087</v>
+        <v>10084</v>
       </c>
       <c r="C40" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D40" s="0" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="E40" s="0" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F40" s="0" t="s">
         <v>28</v>
       </c>
       <c r="G40" s="0" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="H40" s="0" t="s">
         <v>30</v>
       </c>
       <c r="I40" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J40" s="0" t="s">
         <v>32</v>
@@ -3329,7 +3332,7 @@
         <v>37</v>
       </c>
       <c r="U40" s="0" t="n">
-        <v>7800322878</v>
+        <v>7802222878</v>
       </c>
       <c r="V40" s="0" t="s">
         <v>38</v>
@@ -3349,28 +3352,28 @@
         <v>40</v>
       </c>
       <c r="B41" s="0" t="n">
-        <v>10087</v>
+        <v>10084</v>
       </c>
       <c r="C41" s="0" t="s">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="D41" s="0" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="E41" s="0" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F41" s="0" t="s">
         <v>28</v>
       </c>
       <c r="G41" s="0" t="s">
-        <v>58</v>
+        <v>29</v>
       </c>
       <c r="H41" s="0" t="s">
         <v>30</v>
       </c>
       <c r="I41" s="0" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="J41" s="0" t="s">
         <v>32</v>
@@ -3406,7 +3409,7 @@
         <v>37</v>
       </c>
       <c r="U41" s="0" t="n">
-        <v>7800222878</v>
+        <v>7800312878</v>
       </c>
       <c r="V41" s="0" t="s">
         <v>38</v>
@@ -3426,28 +3429,28 @@
         <v>41</v>
       </c>
       <c r="B42" s="0" t="n">
-        <v>10084</v>
+        <v>10087</v>
       </c>
       <c r="C42" s="0" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="D42" s="0" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="E42" s="0" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="F42" s="0" t="s">
         <v>28</v>
       </c>
       <c r="G42" s="0" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="H42" s="0" t="s">
         <v>30</v>
       </c>
       <c r="I42" s="0" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="J42" s="0" t="s">
         <v>32</v>
@@ -3483,7 +3486,7 @@
         <v>37</v>
       </c>
       <c r="U42" s="0" t="n">
-        <v>7802222878</v>
+        <v>7800322878</v>
       </c>
       <c r="V42" s="0" t="s">
         <v>38</v>
@@ -3503,28 +3506,28 @@
         <v>42</v>
       </c>
       <c r="B43" s="0" t="n">
-        <v>10084</v>
+        <v>10087</v>
       </c>
       <c r="C43" s="0" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="D43" s="0" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="E43" s="0" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="F43" s="0" t="s">
         <v>28</v>
       </c>
       <c r="G43" s="0" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="H43" s="0" t="s">
         <v>30</v>
       </c>
       <c r="I43" s="0" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="J43" s="0" t="s">
         <v>32</v>
@@ -3560,7 +3563,7 @@
         <v>37</v>
       </c>
       <c r="U43" s="0" t="n">
-        <v>7800312878</v>
+        <v>7800222878</v>
       </c>
       <c r="V43" s="0" t="s">
         <v>38</v>
@@ -3580,28 +3583,28 @@
         <v>43</v>
       </c>
       <c r="B44" s="0" t="n">
-        <v>10087</v>
+        <v>10084</v>
       </c>
       <c r="C44" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D44" s="0" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="E44" s="0" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F44" s="0" t="s">
         <v>28</v>
       </c>
       <c r="G44" s="0" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="H44" s="0" t="s">
         <v>30</v>
       </c>
       <c r="I44" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J44" s="0" t="s">
         <v>32</v>
@@ -3637,7 +3640,7 @@
         <v>37</v>
       </c>
       <c r="U44" s="0" t="n">
-        <v>7800322878</v>
+        <v>7802222878</v>
       </c>
       <c r="V44" s="0" t="s">
         <v>38</v>
@@ -3657,75 +3660,229 @@
         <v>44</v>
       </c>
       <c r="B45" s="0" t="n">
+        <v>10084</v>
+      </c>
+      <c r="C45" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="D45" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="E45" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="F45" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="G45" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="H45" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="I45" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="J45" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="K45" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="L45" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="M45" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="N45" s="0" t="n">
+        <v>1219</v>
+      </c>
+      <c r="O45" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="P45" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q45" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="R45" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="S45" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="T45" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="U45" s="0" t="n">
+        <v>7800312878</v>
+      </c>
+      <c r="V45" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="W45" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="X45" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y45" s="0" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="46" spans="1:25">
+      <c r="A46" s="0" t="n">
+        <v>45</v>
+      </c>
+      <c r="B46" s="0" t="n">
         <v>10087</v>
       </c>
-      <c r="C45" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="D45" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="E45" s="0" t="s">
+      <c r="C46" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="D46" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="E46" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="F46" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="G46" s="0" t="s">
         <v>57</v>
       </c>
-      <c r="F45" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="G45" s="0" t="s">
+      <c r="H46" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="I46" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="J46" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="K46" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="L46" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="M46" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="N46" s="0" t="n">
+        <v>1219</v>
+      </c>
+      <c r="O46" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="P46" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q46" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="R46" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="S46" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="T46" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="U46" s="0" t="n">
+        <v>7800322878</v>
+      </c>
+      <c r="V46" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="W46" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="X46" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y46" s="0" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="47" spans="1:25">
+      <c r="A47" s="0" t="n">
+        <v>46</v>
+      </c>
+      <c r="B47" s="0" t="n">
+        <v>10087</v>
+      </c>
+      <c r="C47" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="D47" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="E47" s="0" t="s">
         <v>58</v>
       </c>
-      <c r="H45" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="I45" s="0" t="s">
-        <v>50</v>
-      </c>
-      <c r="J45" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="K45" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="L45" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="M45" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="N45" s="0" t="n">
-        <v>1219</v>
-      </c>
-      <c r="O45" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="P45" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q45" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="R45" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="S45" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="T45" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="U45" s="0" t="n">
+      <c r="F47" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="G47" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="H47" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="I47" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="J47" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="K47" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="L47" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="M47" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="N47" s="0" t="n">
+        <v>1219</v>
+      </c>
+      <c r="O47" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="P47" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q47" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="R47" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="S47" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="T47" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="U47" s="0" t="n">
         <v>7800222878</v>
       </c>
-      <c r="V45" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="W45" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="X45" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="Y45" s="0" t="s">
+      <c r="V47" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="W47" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="X47" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y47" s="0" t="s">
         <v>41</v>
       </c>
     </row>
